--- a/PolarReport/TestData/2016/March/report_1.xlsx
+++ b/PolarReport/TestData/2016/March/report_1.xlsx
@@ -1877,46 +1877,200 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1968,21 +2122,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2001,150 +2140,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5592,8 +5592,8 @@
   </sheetPr>
   <dimension ref="B1:AQ121"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5618,36 +5618,36 @@
   <sheetData>
     <row r="1" spans="2:43" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:43" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="213">
+      <c r="B2" s="255">
         <f>Yleistiedot!D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="25"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="189">
+      <c r="M2" s="236">
         <f>H7</f>
         <v>42430</v>
       </c>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
       <c r="Z2" s="24"/>
       <c r="AA2" s="24"/>
       <c r="AB2" s="24"/>
@@ -5665,38 +5665,38 @@
       <c r="AN2" s="24"/>
       <c r="AO2" s="26">
         <f ca="1">TODAY()</f>
-        <v>42489</v>
+        <v>42510</v>
       </c>
       <c r="AP2" s="27"/>
     </row>
     <row r="3" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="177" t="str">
+      <c r="B3" s="228" t="str">
         <f>Yleistiedot!D7</f>
         <v>Aku Ankka</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
       <c r="Z3" s="29"/>
       <c r="AA3" s="30"/>
       <c r="AB3" s="30"/>
@@ -5716,27 +5716,27 @@
       <c r="AP3" s="27"/>
     </row>
     <row r="4" spans="2:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="211" t="str">
+      <c r="B4" s="253" t="str">
         <f>Yleistiedot!D8</f>
         <v>aku.ankka@disney.com</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="190"/>
-      <c r="T4" s="190"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="190"/>
-      <c r="W4" s="190"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="190"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="237"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="237"/>
+      <c r="W4" s="237"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
       <c r="Z4" s="29"/>
       <c r="AA4" s="32"/>
       <c r="AB4" s="32"/>
@@ -5748,11 +5748,11 @@
       <c r="AP4" s="27"/>
     </row>
     <row r="5" spans="2:43" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="G5" s="35"/>
       <c r="H5" s="126">
         <f>IF(H8="Su",1,IF(H8="La",1,0))</f>
@@ -5884,18 +5884,18 @@
       <c r="AP5" s="27"/>
     </row>
     <row r="6" spans="2:43" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="191" t="s">
+      <c r="C6" s="245"/>
+      <c r="D6" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="192"/>
-      <c r="F6" s="203" t="s">
+      <c r="E6" s="239"/>
+      <c r="F6" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="216"/>
+      <c r="G6" s="258"/>
       <c r="H6" s="38" t="s">
         <v>13</v>
       </c>
@@ -5937,12 +5937,12 @@
       <c r="AP6" s="27"/>
     </row>
     <row r="7" spans="2:43" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="199"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="216"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="258"/>
       <c r="H7" s="45">
         <f>Yleistiedot!D5</f>
         <v>42430</v>
@@ -6080,12 +6080,12 @@
       <c r="AP7" s="27"/>
     </row>
     <row r="8" spans="2:43" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="199"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="216"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="258"/>
       <c r="H8" s="47" t="str">
         <f t="shared" ref="H8:AM8" si="2">IF(MOD(WEEKDAY(H7)+5,7)=0,"Ma",IF(MOD(WEEKDAY(H7)+5,7)=1,"Ti",IF(MOD(WEEKDAY(H7)+5,7)=2,"Ke",IF(MOD(WEEKDAY(H7)+5,7)=3,"To",IF(MOD(WEEKDAY(H7)+5,7)=4,"Pe",IF(MOD(WEEKDAY(H7)+5,7)=5,"La","Su"))))))</f>
         <v>Ti</v>
@@ -6219,11 +6219,11 @@
       <c r="AP8" s="27"/>
     </row>
     <row r="9" spans="2:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="205"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="252"/>
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -6262,15 +6262,15 @@
       <c r="AP9" s="27"/>
     </row>
     <row r="10" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="183">
+      <c r="B10" s="205">
         <v>1000</v>
       </c>
       <c r="C10" s="206"/>
-      <c r="D10" s="217" t="s">
+      <c r="D10" s="211" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="206"/>
-      <c r="F10" s="221">
+      <c r="F10" s="225">
         <v>111111</v>
       </c>
       <c r="G10" s="57" t="s">
@@ -6310,9 +6310,7 @@
       <c r="Y10" s="58"/>
       <c r="Z10" s="58"/>
       <c r="AA10" s="58"/>
-      <c r="AB10" s="58">
-        <v>7.5</v>
-      </c>
+      <c r="AB10" s="58"/>
       <c r="AC10" s="58">
         <v>7.5</v>
       </c>
@@ -6323,12 +6321,8 @@
       <c r="AF10" s="58"/>
       <c r="AG10" s="58"/>
       <c r="AH10" s="58"/>
-      <c r="AI10" s="58">
-        <v>7.5</v>
-      </c>
-      <c r="AJ10" s="58">
-        <v>7.5</v>
-      </c>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
       <c r="AK10" s="58">
         <v>7.5</v>
       </c>
@@ -6336,7 +6330,7 @@
       <c r="AM10" s="58"/>
       <c r="AN10" s="83">
         <f t="shared" ref="AN10:AN73" si="3">SUM(H10:AM10)</f>
-        <v>97.5</v>
+        <v>75</v>
       </c>
       <c r="AO10" s="84"/>
       <c r="AP10" s="27"/>
@@ -6345,9 +6339,9 @@
     <row r="11" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="207"/>
       <c r="C11" s="208"/>
-      <c r="D11" s="218"/>
+      <c r="D11" s="212"/>
       <c r="E11" s="208"/>
-      <c r="F11" s="222"/>
+      <c r="F11" s="259"/>
       <c r="G11" s="60" t="s">
         <v>15</v>
       </c>
@@ -6396,9 +6390,9 @@
     <row r="12" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="207"/>
       <c r="C12" s="208"/>
-      <c r="D12" s="218"/>
+      <c r="D12" s="212"/>
       <c r="E12" s="208"/>
-      <c r="F12" s="222"/>
+      <c r="F12" s="259"/>
       <c r="G12" s="63" t="s">
         <v>16</v>
       </c>
@@ -6447,9 +6441,9 @@
     <row r="13" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="207"/>
       <c r="C13" s="208"/>
-      <c r="D13" s="218"/>
+      <c r="D13" s="212"/>
       <c r="E13" s="208"/>
-      <c r="F13" s="222"/>
+      <c r="F13" s="259"/>
       <c r="G13" s="63" t="s">
         <v>17</v>
       </c>
@@ -6498,9 +6492,9 @@
     <row r="14" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="207"/>
       <c r="C14" s="208"/>
-      <c r="D14" s="218"/>
+      <c r="D14" s="212"/>
       <c r="E14" s="208"/>
-      <c r="F14" s="222"/>
+      <c r="F14" s="259"/>
       <c r="G14" s="63" t="s">
         <v>18</v>
       </c>
@@ -6547,9 +6541,9 @@
     <row r="15" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="207"/>
       <c r="C15" s="208"/>
-      <c r="D15" s="218"/>
+      <c r="D15" s="212"/>
       <c r="E15" s="208"/>
-      <c r="F15" s="222"/>
+      <c r="F15" s="259"/>
       <c r="G15" s="63" t="s">
         <v>19</v>
       </c>
@@ -6596,9 +6590,9 @@
     <row r="16" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="207"/>
       <c r="C16" s="208"/>
-      <c r="D16" s="218"/>
+      <c r="D16" s="212"/>
       <c r="E16" s="208"/>
-      <c r="F16" s="222"/>
+      <c r="F16" s="259"/>
       <c r="G16" s="69" t="s">
         <v>20</v>
       </c>
@@ -6645,9 +6639,9 @@
     <row r="17" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="207"/>
       <c r="C17" s="208"/>
-      <c r="D17" s="219"/>
+      <c r="D17" s="213"/>
       <c r="E17" s="208"/>
-      <c r="F17" s="222"/>
+      <c r="F17" s="259"/>
       <c r="G17" s="63" t="s">
         <v>30</v>
       </c>
@@ -6696,9 +6690,9 @@
     <row r="18" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="207"/>
       <c r="C18" s="208"/>
-      <c r="D18" s="219"/>
+      <c r="D18" s="213"/>
       <c r="E18" s="208"/>
-      <c r="F18" s="222"/>
+      <c r="F18" s="259"/>
       <c r="G18" s="63" t="s">
         <v>23</v>
       </c>
@@ -6730,9 +6724,7 @@
       <c r="Y18" s="64"/>
       <c r="Z18" s="64"/>
       <c r="AA18" s="64"/>
-      <c r="AB18" s="64">
-        <v>23</v>
-      </c>
+      <c r="AB18" s="64"/>
       <c r="AC18" s="64">
         <v>23</v>
       </c>
@@ -6743,12 +6735,8 @@
       <c r="AF18" s="64"/>
       <c r="AG18" s="64"/>
       <c r="AH18" s="64"/>
-      <c r="AI18" s="64">
-        <v>23</v>
-      </c>
-      <c r="AJ18" s="64">
-        <v>23</v>
-      </c>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
       <c r="AK18" s="64">
         <v>23</v>
       </c>
@@ -6756,7 +6744,7 @@
       <c r="AM18" s="64"/>
       <c r="AN18" s="81">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="AO18" s="77"/>
       <c r="AP18" s="27"/>
@@ -6765,9 +6753,9 @@
     <row r="19" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="207"/>
       <c r="C19" s="208"/>
-      <c r="D19" s="219"/>
+      <c r="D19" s="213"/>
       <c r="E19" s="208"/>
-      <c r="F19" s="222"/>
+      <c r="F19" s="259"/>
       <c r="G19" s="63" t="s">
         <v>26</v>
       </c>
@@ -6797,9 +6785,7 @@
       <c r="Y19" s="64"/>
       <c r="Z19" s="64"/>
       <c r="AA19" s="64"/>
-      <c r="AB19" s="64">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="64"/>
       <c r="AC19" s="64">
         <v>1</v>
       </c>
@@ -6810,12 +6796,8 @@
       <c r="AF19" s="64"/>
       <c r="AG19" s="64"/>
       <c r="AH19" s="64"/>
-      <c r="AI19" s="64">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="64">
-        <v>1</v>
-      </c>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
       <c r="AK19" s="64">
         <v>1</v>
       </c>
@@ -6823,7 +6805,7 @@
       <c r="AM19" s="64"/>
       <c r="AN19" s="81">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO19" s="77"/>
       <c r="AP19" s="27"/>
@@ -6832,9 +6814,9 @@
     <row r="20" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
-      <c r="D20" s="219"/>
+      <c r="D20" s="213"/>
       <c r="E20" s="208"/>
-      <c r="F20" s="222"/>
+      <c r="F20" s="259"/>
       <c r="G20" s="63" t="s">
         <v>24</v>
       </c>
@@ -6881,9 +6863,9 @@
     <row r="21" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="209"/>
       <c r="C21" s="210"/>
-      <c r="D21" s="220"/>
+      <c r="D21" s="214"/>
       <c r="E21" s="210"/>
-      <c r="F21" s="223"/>
+      <c r="F21" s="260"/>
       <c r="G21" s="70" t="s">
         <v>25</v>
       </c>
@@ -6930,15 +6912,15 @@
       <c r="AQ21" s="34"/>
     </row>
     <row r="22" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="183">
+      <c r="B22" s="205">
         <v>2000</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="217" t="s">
+      <c r="C22" s="218"/>
+      <c r="D22" s="211" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="206"/>
-      <c r="F22" s="221">
+      <c r="F22" s="225">
         <v>222222</v>
       </c>
       <c r="G22" s="57" t="s">
@@ -7005,11 +6987,11 @@
       <c r="AQ22" s="34"/>
     </row>
     <row r="23" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="185"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="218"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="212"/>
       <c r="E23" s="208"/>
-      <c r="F23" s="229"/>
+      <c r="F23" s="226"/>
       <c r="G23" s="60" t="s">
         <v>15</v>
       </c>
@@ -7054,11 +7036,11 @@
       <c r="AQ23" s="34"/>
     </row>
     <row r="24" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="218"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="212"/>
       <c r="E24" s="208"/>
-      <c r="F24" s="229"/>
+      <c r="F24" s="226"/>
       <c r="G24" s="63" t="s">
         <v>16</v>
       </c>
@@ -7103,11 +7085,11 @@
       <c r="AQ24" s="34"/>
     </row>
     <row r="25" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="185"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="218"/>
+      <c r="B25" s="234"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="212"/>
       <c r="E25" s="208"/>
-      <c r="F25" s="229"/>
+      <c r="F25" s="226"/>
       <c r="G25" s="63" t="s">
         <v>17</v>
       </c>
@@ -7152,11 +7134,11 @@
       <c r="AQ25" s="34"/>
     </row>
     <row r="26" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="218"/>
+      <c r="B26" s="234"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="212"/>
       <c r="E26" s="208"/>
-      <c r="F26" s="229"/>
+      <c r="F26" s="226"/>
       <c r="G26" s="63" t="s">
         <v>18</v>
       </c>
@@ -7201,11 +7183,11 @@
       <c r="AQ26" s="34"/>
     </row>
     <row r="27" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="185"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="218"/>
+      <c r="B27" s="234"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="212"/>
       <c r="E27" s="208"/>
-      <c r="F27" s="229"/>
+      <c r="F27" s="226"/>
       <c r="G27" s="63" t="s">
         <v>19</v>
       </c>
@@ -7250,11 +7232,11 @@
       <c r="AQ27" s="34"/>
     </row>
     <row r="28" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="218"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="212"/>
       <c r="E28" s="208"/>
-      <c r="F28" s="229"/>
+      <c r="F28" s="226"/>
       <c r="G28" s="69" t="s">
         <v>20</v>
       </c>
@@ -7299,11 +7281,11 @@
       <c r="AQ28" s="34"/>
     </row>
     <row r="29" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="185"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="219"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="213"/>
       <c r="E29" s="208"/>
-      <c r="F29" s="229"/>
+      <c r="F29" s="226"/>
       <c r="G29" s="63" t="s">
         <v>30</v>
       </c>
@@ -7348,11 +7330,11 @@
       <c r="AQ29" s="34"/>
     </row>
     <row r="30" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="185"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="219"/>
+      <c r="B30" s="234"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="213"/>
       <c r="E30" s="208"/>
-      <c r="F30" s="229"/>
+      <c r="F30" s="226"/>
       <c r="G30" s="63" t="s">
         <v>23</v>
       </c>
@@ -7405,11 +7387,11 @@
       <c r="AQ30" s="34"/>
     </row>
     <row r="31" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="185"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="219"/>
+      <c r="B31" s="234"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="213"/>
       <c r="E31" s="208"/>
-      <c r="F31" s="229"/>
+      <c r="F31" s="226"/>
       <c r="G31" s="63" t="s">
         <v>26</v>
       </c>
@@ -7462,11 +7444,11 @@
       <c r="AQ31" s="34"/>
     </row>
     <row r="32" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="185"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="219"/>
+      <c r="B32" s="234"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="213"/>
       <c r="E32" s="208"/>
-      <c r="F32" s="229"/>
+      <c r="F32" s="226"/>
       <c r="G32" s="63" t="s">
         <v>24</v>
       </c>
@@ -7511,11 +7493,11 @@
       <c r="AQ32" s="34"/>
     </row>
     <row r="33" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="187"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="220"/>
+      <c r="B33" s="235"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="214"/>
       <c r="E33" s="210"/>
-      <c r="F33" s="230"/>
+      <c r="F33" s="227"/>
       <c r="G33" s="70" t="s">
         <v>25</v>
       </c>
@@ -7560,15 +7542,15 @@
       <c r="AQ33" s="34"/>
     </row>
     <row r="34" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="183">
+      <c r="B34" s="205">
         <v>5000</v>
       </c>
-      <c r="C34" s="184"/>
-      <c r="D34" s="217" t="s">
+      <c r="C34" s="218"/>
+      <c r="D34" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="184"/>
-      <c r="F34" s="226"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="215"/>
       <c r="G34" s="57" t="s">
         <v>27</v>
       </c>
@@ -7627,11 +7609,11 @@
       <c r="AQ34" s="34"/>
     </row>
     <row r="35" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="185"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="224"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="227"/>
+      <c r="B35" s="234"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="219"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="60" t="s">
         <v>15</v>
       </c>
@@ -7676,11 +7658,11 @@
       <c r="AQ35" s="34"/>
     </row>
     <row r="36" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="185"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="224"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="227"/>
+      <c r="B36" s="234"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="219"/>
+      <c r="E36" s="220"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="63" t="s">
         <v>16</v>
       </c>
@@ -7725,11 +7707,11 @@
       <c r="AQ36" s="34"/>
     </row>
     <row r="37" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="185"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="227"/>
+      <c r="B37" s="234"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="219"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="63" t="s">
         <v>17</v>
       </c>
@@ -7774,11 +7756,11 @@
       <c r="AQ37" s="34"/>
     </row>
     <row r="38" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="185"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="227"/>
+      <c r="B38" s="234"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="223"/>
       <c r="G38" s="63" t="s">
         <v>18</v>
       </c>
@@ -7823,11 +7805,11 @@
       <c r="AQ38" s="34"/>
     </row>
     <row r="39" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="185"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="227"/>
+      <c r="B39" s="234"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="219"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="223"/>
       <c r="G39" s="63" t="s">
         <v>19</v>
       </c>
@@ -7872,11 +7854,11 @@
       <c r="AQ39" s="34"/>
     </row>
     <row r="40" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="185"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="227"/>
+      <c r="B40" s="234"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="219"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="223"/>
       <c r="G40" s="69" t="s">
         <v>20</v>
       </c>
@@ -7921,11 +7903,11 @@
       <c r="AQ40" s="34"/>
     </row>
     <row r="41" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="185"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="227"/>
+      <c r="B41" s="234"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="223"/>
       <c r="G41" s="63" t="s">
         <v>30</v>
       </c>
@@ -7970,11 +7952,11 @@
       <c r="AQ41" s="34"/>
     </row>
     <row r="42" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="185"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="227"/>
+      <c r="B42" s="234"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="223"/>
       <c r="G42" s="63" t="s">
         <v>23</v>
       </c>
@@ -8019,11 +8001,11 @@
       <c r="AQ42" s="34"/>
     </row>
     <row r="43" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="185"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="227"/>
+      <c r="B43" s="234"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="220"/>
+      <c r="F43" s="223"/>
       <c r="G43" s="63" t="s">
         <v>26</v>
       </c>
@@ -8068,11 +8050,11 @@
       <c r="AQ43" s="34"/>
     </row>
     <row r="44" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="185"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="224"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="227"/>
+      <c r="B44" s="234"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="219"/>
+      <c r="E44" s="220"/>
+      <c r="F44" s="223"/>
       <c r="G44" s="63" t="s">
         <v>24</v>
       </c>
@@ -8117,11 +8099,11 @@
       <c r="AQ44" s="34"/>
     </row>
     <row r="45" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="187"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="225"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="228"/>
+      <c r="B45" s="235"/>
+      <c r="C45" s="222"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="222"/>
+      <c r="F45" s="224"/>
       <c r="G45" s="70" t="s">
         <v>25</v>
       </c>
@@ -8166,11 +8148,11 @@
       <c r="AQ45" s="34"/>
     </row>
     <row r="46" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="183"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="226"/>
+      <c r="B46" s="205"/>
+      <c r="C46" s="218"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="215"/>
       <c r="G46" s="57" t="s">
         <v>27</v>
       </c>
@@ -8215,11 +8197,11 @@
       <c r="AQ46" s="34"/>
     </row>
     <row r="47" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="185"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="224"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="227"/>
+      <c r="B47" s="234"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="223"/>
       <c r="G47" s="60" t="s">
         <v>15</v>
       </c>
@@ -8264,11 +8246,11 @@
       <c r="AQ47" s="34"/>
     </row>
     <row r="48" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="185"/>
-      <c r="C48" s="186"/>
-      <c r="D48" s="224"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="227"/>
+      <c r="B48" s="234"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="223"/>
       <c r="G48" s="63" t="s">
         <v>16</v>
       </c>
@@ -8313,11 +8295,11 @@
       <c r="AQ48" s="34"/>
     </row>
     <row r="49" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="185"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="224"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="227"/>
+      <c r="B49" s="234"/>
+      <c r="C49" s="220"/>
+      <c r="D49" s="219"/>
+      <c r="E49" s="220"/>
+      <c r="F49" s="223"/>
       <c r="G49" s="63" t="s">
         <v>17</v>
       </c>
@@ -8362,11 +8344,11 @@
       <c r="AQ49" s="34"/>
     </row>
     <row r="50" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="185"/>
-      <c r="C50" s="186"/>
-      <c r="D50" s="224"/>
-      <c r="E50" s="186"/>
-      <c r="F50" s="227"/>
+      <c r="B50" s="234"/>
+      <c r="C50" s="220"/>
+      <c r="D50" s="219"/>
+      <c r="E50" s="220"/>
+      <c r="F50" s="223"/>
       <c r="G50" s="63" t="s">
         <v>18</v>
       </c>
@@ -8411,11 +8393,11 @@
       <c r="AQ50" s="34"/>
     </row>
     <row r="51" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="185"/>
-      <c r="C51" s="186"/>
-      <c r="D51" s="224"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="227"/>
+      <c r="B51" s="234"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="223"/>
       <c r="G51" s="63" t="s">
         <v>19</v>
       </c>
@@ -8460,11 +8442,11 @@
       <c r="AQ51" s="34"/>
     </row>
     <row r="52" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="185"/>
-      <c r="C52" s="186"/>
-      <c r="D52" s="224"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="227"/>
+      <c r="B52" s="234"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="220"/>
+      <c r="F52" s="223"/>
       <c r="G52" s="69" t="s">
         <v>20</v>
       </c>
@@ -8509,11 +8491,11 @@
       <c r="AQ52" s="34"/>
     </row>
     <row r="53" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="185"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="186"/>
-      <c r="F53" s="227"/>
+      <c r="B53" s="234"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="219"/>
+      <c r="E53" s="220"/>
+      <c r="F53" s="223"/>
       <c r="G53" s="63" t="s">
         <v>30</v>
       </c>
@@ -8558,11 +8540,11 @@
       <c r="AQ53" s="34"/>
     </row>
     <row r="54" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="185"/>
-      <c r="C54" s="186"/>
-      <c r="D54" s="224"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="227"/>
+      <c r="B54" s="234"/>
+      <c r="C54" s="220"/>
+      <c r="D54" s="219"/>
+      <c r="E54" s="220"/>
+      <c r="F54" s="223"/>
       <c r="G54" s="63" t="s">
         <v>23</v>
       </c>
@@ -8607,11 +8589,11 @@
       <c r="AQ54" s="34"/>
     </row>
     <row r="55" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="185"/>
-      <c r="C55" s="186"/>
-      <c r="D55" s="224"/>
-      <c r="E55" s="186"/>
-      <c r="F55" s="227"/>
+      <c r="B55" s="234"/>
+      <c r="C55" s="220"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
+      <c r="F55" s="223"/>
       <c r="G55" s="63" t="s">
         <v>26</v>
       </c>
@@ -8656,11 +8638,11 @@
       <c r="AQ55" s="34"/>
     </row>
     <row r="56" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="185"/>
-      <c r="C56" s="186"/>
-      <c r="D56" s="224"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="227"/>
+      <c r="B56" s="234"/>
+      <c r="C56" s="220"/>
+      <c r="D56" s="219"/>
+      <c r="E56" s="220"/>
+      <c r="F56" s="223"/>
       <c r="G56" s="63" t="s">
         <v>24</v>
       </c>
@@ -8705,11 +8687,11 @@
       <c r="AQ56" s="34"/>
     </row>
     <row r="57" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="187"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="225"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="228"/>
+      <c r="B57" s="235"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="221"/>
+      <c r="E57" s="222"/>
+      <c r="F57" s="224"/>
       <c r="G57" s="70" t="s">
         <v>25</v>
       </c>
@@ -8754,11 +8736,11 @@
       <c r="AQ57" s="34"/>
     </row>
     <row r="58" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="183"/>
+      <c r="B58" s="205"/>
       <c r="C58" s="206"/>
-      <c r="D58" s="217"/>
+      <c r="D58" s="211"/>
       <c r="E58" s="206"/>
-      <c r="F58" s="233"/>
+      <c r="F58" s="190"/>
       <c r="G58" s="57" t="s">
         <v>27</v>
       </c>
@@ -8805,9 +8787,9 @@
     <row r="59" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="207"/>
       <c r="C59" s="208"/>
-      <c r="D59" s="218"/>
+      <c r="D59" s="212"/>
       <c r="E59" s="208"/>
-      <c r="F59" s="234"/>
+      <c r="F59" s="191"/>
       <c r="G59" s="60" t="s">
         <v>15</v>
       </c>
@@ -8854,9 +8836,9 @@
     <row r="60" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="207"/>
       <c r="C60" s="208"/>
-      <c r="D60" s="218"/>
+      <c r="D60" s="212"/>
       <c r="E60" s="208"/>
-      <c r="F60" s="234"/>
+      <c r="F60" s="191"/>
       <c r="G60" s="63" t="s">
         <v>16</v>
       </c>
@@ -8903,9 +8885,9 @@
     <row r="61" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="207"/>
       <c r="C61" s="208"/>
-      <c r="D61" s="218"/>
+      <c r="D61" s="212"/>
       <c r="E61" s="208"/>
-      <c r="F61" s="234"/>
+      <c r="F61" s="191"/>
       <c r="G61" s="63" t="s">
         <v>17</v>
       </c>
@@ -8952,9 +8934,9 @@
     <row r="62" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="207"/>
       <c r="C62" s="208"/>
-      <c r="D62" s="218"/>
+      <c r="D62" s="212"/>
       <c r="E62" s="208"/>
-      <c r="F62" s="234"/>
+      <c r="F62" s="191"/>
       <c r="G62" s="63" t="s">
         <v>18</v>
       </c>
@@ -9001,9 +8983,9 @@
     <row r="63" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="207"/>
       <c r="C63" s="208"/>
-      <c r="D63" s="218"/>
+      <c r="D63" s="212"/>
       <c r="E63" s="208"/>
-      <c r="F63" s="234"/>
+      <c r="F63" s="191"/>
       <c r="G63" s="63" t="s">
         <v>19</v>
       </c>
@@ -9050,9 +9032,9 @@
     <row r="64" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="207"/>
       <c r="C64" s="208"/>
-      <c r="D64" s="218"/>
+      <c r="D64" s="212"/>
       <c r="E64" s="208"/>
-      <c r="F64" s="234"/>
+      <c r="F64" s="191"/>
       <c r="G64" s="69" t="s">
         <v>20</v>
       </c>
@@ -9099,9 +9081,9 @@
     <row r="65" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="207"/>
       <c r="C65" s="208"/>
-      <c r="D65" s="219"/>
+      <c r="D65" s="213"/>
       <c r="E65" s="208"/>
-      <c r="F65" s="234"/>
+      <c r="F65" s="191"/>
       <c r="G65" s="63" t="s">
         <v>30</v>
       </c>
@@ -9148,9 +9130,9 @@
     <row r="66" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="207"/>
       <c r="C66" s="208"/>
-      <c r="D66" s="219"/>
+      <c r="D66" s="213"/>
       <c r="E66" s="208"/>
-      <c r="F66" s="234"/>
+      <c r="F66" s="191"/>
       <c r="G66" s="63" t="s">
         <v>23</v>
       </c>
@@ -9197,9 +9179,9 @@
     <row r="67" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="207"/>
       <c r="C67" s="208"/>
-      <c r="D67" s="219"/>
+      <c r="D67" s="213"/>
       <c r="E67" s="208"/>
-      <c r="F67" s="234"/>
+      <c r="F67" s="191"/>
       <c r="G67" s="63" t="s">
         <v>26</v>
       </c>
@@ -9246,9 +9228,9 @@
     <row r="68" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="207"/>
       <c r="C68" s="208"/>
-      <c r="D68" s="219"/>
+      <c r="D68" s="213"/>
       <c r="E68" s="208"/>
-      <c r="F68" s="234"/>
+      <c r="F68" s="191"/>
       <c r="G68" s="63" t="s">
         <v>24</v>
       </c>
@@ -9295,9 +9277,9 @@
     <row r="69" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="209"/>
       <c r="C69" s="210"/>
-      <c r="D69" s="220"/>
+      <c r="D69" s="214"/>
       <c r="E69" s="210"/>
-      <c r="F69" s="235"/>
+      <c r="F69" s="192"/>
       <c r="G69" s="70" t="s">
         <v>25</v>
       </c>
@@ -9342,11 +9324,11 @@
       <c r="AQ69" s="34"/>
     </row>
     <row r="70" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="183"/>
+      <c r="B70" s="205"/>
       <c r="C70" s="206"/>
-      <c r="D70" s="217"/>
+      <c r="D70" s="211"/>
       <c r="E70" s="206"/>
-      <c r="F70" s="226"/>
+      <c r="F70" s="215"/>
       <c r="G70" s="57" t="s">
         <v>27</v>
       </c>
@@ -9393,9 +9375,9 @@
     <row r="71" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="207"/>
       <c r="C71" s="208"/>
-      <c r="D71" s="218"/>
+      <c r="D71" s="212"/>
       <c r="E71" s="208"/>
-      <c r="F71" s="231"/>
+      <c r="F71" s="216"/>
       <c r="G71" s="60" t="s">
         <v>15</v>
       </c>
@@ -9442,9 +9424,9 @@
     <row r="72" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="207"/>
       <c r="C72" s="208"/>
-      <c r="D72" s="218"/>
+      <c r="D72" s="212"/>
       <c r="E72" s="208"/>
-      <c r="F72" s="231"/>
+      <c r="F72" s="216"/>
       <c r="G72" s="63" t="s">
         <v>16</v>
       </c>
@@ -9491,9 +9473,9 @@
     <row r="73" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="207"/>
       <c r="C73" s="208"/>
-      <c r="D73" s="218"/>
+      <c r="D73" s="212"/>
       <c r="E73" s="208"/>
-      <c r="F73" s="231"/>
+      <c r="F73" s="216"/>
       <c r="G73" s="63" t="s">
         <v>17</v>
       </c>
@@ -9540,9 +9522,9 @@
     <row r="74" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="207"/>
       <c r="C74" s="208"/>
-      <c r="D74" s="218"/>
+      <c r="D74" s="212"/>
       <c r="E74" s="208"/>
-      <c r="F74" s="231"/>
+      <c r="F74" s="216"/>
       <c r="G74" s="63" t="s">
         <v>18</v>
       </c>
@@ -9589,9 +9571,9 @@
     <row r="75" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="207"/>
       <c r="C75" s="208"/>
-      <c r="D75" s="218"/>
+      <c r="D75" s="212"/>
       <c r="E75" s="208"/>
-      <c r="F75" s="231"/>
+      <c r="F75" s="216"/>
       <c r="G75" s="63" t="s">
         <v>19</v>
       </c>
@@ -9638,9 +9620,9 @@
     <row r="76" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="207"/>
       <c r="C76" s="208"/>
-      <c r="D76" s="218"/>
+      <c r="D76" s="212"/>
       <c r="E76" s="208"/>
-      <c r="F76" s="231"/>
+      <c r="F76" s="216"/>
       <c r="G76" s="69" t="s">
         <v>20</v>
       </c>
@@ -9687,9 +9669,9 @@
     <row r="77" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="207"/>
       <c r="C77" s="208"/>
-      <c r="D77" s="219"/>
+      <c r="D77" s="213"/>
       <c r="E77" s="208"/>
-      <c r="F77" s="231"/>
+      <c r="F77" s="216"/>
       <c r="G77" s="63" t="s">
         <v>30</v>
       </c>
@@ -9736,9 +9718,9 @@
     <row r="78" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="207"/>
       <c r="C78" s="208"/>
-      <c r="D78" s="219"/>
+      <c r="D78" s="213"/>
       <c r="E78" s="208"/>
-      <c r="F78" s="231"/>
+      <c r="F78" s="216"/>
       <c r="G78" s="63" t="s">
         <v>23</v>
       </c>
@@ -9785,9 +9767,9 @@
     <row r="79" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="207"/>
       <c r="C79" s="208"/>
-      <c r="D79" s="219"/>
+      <c r="D79" s="213"/>
       <c r="E79" s="208"/>
-      <c r="F79" s="231"/>
+      <c r="F79" s="216"/>
       <c r="G79" s="63" t="s">
         <v>26</v>
       </c>
@@ -9834,9 +9816,9 @@
     <row r="80" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="207"/>
       <c r="C80" s="208"/>
-      <c r="D80" s="219"/>
+      <c r="D80" s="213"/>
       <c r="E80" s="208"/>
-      <c r="F80" s="231"/>
+      <c r="F80" s="216"/>
       <c r="G80" s="63" t="s">
         <v>24</v>
       </c>
@@ -9883,9 +9865,9 @@
     <row r="81" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="209"/>
       <c r="C81" s="210"/>
-      <c r="D81" s="220"/>
+      <c r="D81" s="214"/>
       <c r="E81" s="210"/>
-      <c r="F81" s="232"/>
+      <c r="F81" s="217"/>
       <c r="G81" s="70" t="s">
         <v>25</v>
       </c>
@@ -9930,11 +9912,11 @@
       <c r="AQ81" s="34"/>
     </row>
     <row r="82" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="183"/>
+      <c r="B82" s="205"/>
       <c r="C82" s="206"/>
-      <c r="D82" s="217"/>
+      <c r="D82" s="211"/>
       <c r="E82" s="206"/>
-      <c r="F82" s="233"/>
+      <c r="F82" s="190"/>
       <c r="G82" s="57" t="s">
         <v>27</v>
       </c>
@@ -9981,9 +9963,9 @@
     <row r="83" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="207"/>
       <c r="C83" s="208"/>
-      <c r="D83" s="218"/>
+      <c r="D83" s="212"/>
       <c r="E83" s="208"/>
-      <c r="F83" s="234"/>
+      <c r="F83" s="191"/>
       <c r="G83" s="60" t="s">
         <v>15</v>
       </c>
@@ -10030,9 +10012,9 @@
     <row r="84" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="207"/>
       <c r="C84" s="208"/>
-      <c r="D84" s="218"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="208"/>
-      <c r="F84" s="234"/>
+      <c r="F84" s="191"/>
       <c r="G84" s="63" t="s">
         <v>16</v>
       </c>
@@ -10079,9 +10061,9 @@
     <row r="85" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="207"/>
       <c r="C85" s="208"/>
-      <c r="D85" s="218"/>
+      <c r="D85" s="212"/>
       <c r="E85" s="208"/>
-      <c r="F85" s="234"/>
+      <c r="F85" s="191"/>
       <c r="G85" s="63" t="s">
         <v>17</v>
       </c>
@@ -10128,9 +10110,9 @@
     <row r="86" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="207"/>
       <c r="C86" s="208"/>
-      <c r="D86" s="218"/>
+      <c r="D86" s="212"/>
       <c r="E86" s="208"/>
-      <c r="F86" s="234"/>
+      <c r="F86" s="191"/>
       <c r="G86" s="63" t="s">
         <v>18</v>
       </c>
@@ -10177,9 +10159,9 @@
     <row r="87" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="207"/>
       <c r="C87" s="208"/>
-      <c r="D87" s="218"/>
+      <c r="D87" s="212"/>
       <c r="E87" s="208"/>
-      <c r="F87" s="234"/>
+      <c r="F87" s="191"/>
       <c r="G87" s="63" t="s">
         <v>19</v>
       </c>
@@ -10226,9 +10208,9 @@
     <row r="88" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="207"/>
       <c r="C88" s="208"/>
-      <c r="D88" s="218"/>
+      <c r="D88" s="212"/>
       <c r="E88" s="208"/>
-      <c r="F88" s="234"/>
+      <c r="F88" s="191"/>
       <c r="G88" s="69" t="s">
         <v>20</v>
       </c>
@@ -10275,9 +10257,9 @@
     <row r="89" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="207"/>
       <c r="C89" s="208"/>
-      <c r="D89" s="219"/>
+      <c r="D89" s="213"/>
       <c r="E89" s="208"/>
-      <c r="F89" s="234"/>
+      <c r="F89" s="191"/>
       <c r="G89" s="63" t="s">
         <v>30</v>
       </c>
@@ -10324,9 +10306,9 @@
     <row r="90" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="207"/>
       <c r="C90" s="208"/>
-      <c r="D90" s="219"/>
+      <c r="D90" s="213"/>
       <c r="E90" s="208"/>
-      <c r="F90" s="234"/>
+      <c r="F90" s="191"/>
       <c r="G90" s="63" t="s">
         <v>23</v>
       </c>
@@ -10373,9 +10355,9 @@
     <row r="91" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="207"/>
       <c r="C91" s="208"/>
-      <c r="D91" s="219"/>
+      <c r="D91" s="213"/>
       <c r="E91" s="208"/>
-      <c r="F91" s="234"/>
+      <c r="F91" s="191"/>
       <c r="G91" s="63" t="s">
         <v>26</v>
       </c>
@@ -10422,9 +10404,9 @@
     <row r="92" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="207"/>
       <c r="C92" s="208"/>
-      <c r="D92" s="219"/>
+      <c r="D92" s="213"/>
       <c r="E92" s="208"/>
-      <c r="F92" s="234"/>
+      <c r="F92" s="191"/>
       <c r="G92" s="63" t="s">
         <v>24</v>
       </c>
@@ -10470,9 +10452,9 @@
     <row r="93" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="209"/>
       <c r="C93" s="210"/>
-      <c r="D93" s="220"/>
+      <c r="D93" s="214"/>
       <c r="E93" s="210"/>
-      <c r="F93" s="235"/>
+      <c r="F93" s="192"/>
       <c r="G93" s="70" t="s">
         <v>25</v>
       </c>
@@ -10516,13 +10498,13 @@
       <c r="AP93" s="27"/>
     </row>
     <row r="94" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="249"/>
-      <c r="C94" s="250"/>
-      <c r="D94" s="255" t="s">
+      <c r="B94" s="193"/>
+      <c r="C94" s="194"/>
+      <c r="D94" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="258"/>
+      <c r="E94" s="194"/>
+      <c r="F94" s="202"/>
       <c r="G94" s="86" t="s">
         <v>27</v>
       </c>
@@ -10608,7 +10590,7 @@
       </c>
       <c r="AB94" s="87">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC94" s="87">
         <f t="shared" si="5"/>
@@ -10636,11 +10618,11 @@
       </c>
       <c r="AI94" s="87">
         <f t="shared" ref="AI94" si="8">SUM(AI10,AI22,AI34,AI46,AI58,AI70,AI82)</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AJ94" s="87">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AK94" s="87">
         <f t="shared" si="5"/>
@@ -10653,17 +10635,17 @@
       <c r="AM94" s="85"/>
       <c r="AN94" s="88">
         <f t="shared" si="4"/>
-        <v>172.5</v>
+        <v>150</v>
       </c>
       <c r="AO94" s="89"/>
       <c r="AP94" s="27"/>
     </row>
     <row r="95" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="251"/>
-      <c r="C95" s="252"/>
-      <c r="D95" s="256"/>
-      <c r="E95" s="252"/>
-      <c r="F95" s="259"/>
+      <c r="B95" s="195"/>
+      <c r="C95" s="196"/>
+      <c r="D95" s="200"/>
+      <c r="E95" s="196"/>
+      <c r="F95" s="203"/>
       <c r="G95" s="90" t="s">
         <v>15</v>
       </c>
@@ -10800,11 +10782,11 @@
       <c r="AP95" s="27"/>
     </row>
     <row r="96" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="251"/>
-      <c r="C96" s="252"/>
-      <c r="D96" s="256"/>
-      <c r="E96" s="252"/>
-      <c r="F96" s="259"/>
+      <c r="B96" s="195"/>
+      <c r="C96" s="196"/>
+      <c r="D96" s="200"/>
+      <c r="E96" s="196"/>
+      <c r="F96" s="203"/>
       <c r="G96" s="94" t="s">
         <v>16</v>
       </c>
@@ -10941,11 +10923,11 @@
       <c r="AP96" s="27"/>
     </row>
     <row r="97" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="251"/>
-      <c r="C97" s="252"/>
-      <c r="D97" s="256"/>
-      <c r="E97" s="252"/>
-      <c r="F97" s="259"/>
+      <c r="B97" s="195"/>
+      <c r="C97" s="196"/>
+      <c r="D97" s="200"/>
+      <c r="E97" s="196"/>
+      <c r="F97" s="203"/>
       <c r="G97" s="94" t="s">
         <v>17</v>
       </c>
@@ -11082,11 +11064,11 @@
       <c r="AP97" s="27"/>
     </row>
     <row r="98" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="251"/>
-      <c r="C98" s="252"/>
-      <c r="D98" s="256"/>
-      <c r="E98" s="252"/>
-      <c r="F98" s="259"/>
+      <c r="B98" s="195"/>
+      <c r="C98" s="196"/>
+      <c r="D98" s="200"/>
+      <c r="E98" s="196"/>
+      <c r="F98" s="203"/>
       <c r="G98" s="94" t="s">
         <v>18</v>
       </c>
@@ -11223,11 +11205,11 @@
       <c r="AP98" s="27"/>
     </row>
     <row r="99" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="251"/>
-      <c r="C99" s="252"/>
-      <c r="D99" s="256"/>
-      <c r="E99" s="252"/>
-      <c r="F99" s="259"/>
+      <c r="B99" s="195"/>
+      <c r="C99" s="196"/>
+      <c r="D99" s="200"/>
+      <c r="E99" s="196"/>
+      <c r="F99" s="203"/>
       <c r="G99" s="94" t="s">
         <v>19</v>
       </c>
@@ -11364,11 +11346,11 @@
       <c r="AP99" s="27"/>
     </row>
     <row r="100" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="251"/>
-      <c r="C100" s="252"/>
-      <c r="D100" s="256"/>
-      <c r="E100" s="252"/>
-      <c r="F100" s="259"/>
+      <c r="B100" s="195"/>
+      <c r="C100" s="196"/>
+      <c r="D100" s="200"/>
+      <c r="E100" s="196"/>
+      <c r="F100" s="203"/>
       <c r="G100" s="97" t="s">
         <v>20</v>
       </c>
@@ -11505,11 +11487,11 @@
       <c r="AP100" s="27"/>
     </row>
     <row r="101" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="251"/>
-      <c r="C101" s="252"/>
-      <c r="D101" s="256"/>
-      <c r="E101" s="252"/>
-      <c r="F101" s="259"/>
+      <c r="B101" s="195"/>
+      <c r="C101" s="196"/>
+      <c r="D101" s="200"/>
+      <c r="E101" s="196"/>
+      <c r="F101" s="203"/>
       <c r="G101" s="94" t="s">
         <v>30</v>
       </c>
@@ -11646,11 +11628,11 @@
       <c r="AP101" s="27"/>
     </row>
     <row r="102" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="251"/>
-      <c r="C102" s="252"/>
-      <c r="D102" s="256"/>
-      <c r="E102" s="252"/>
-      <c r="F102" s="259"/>
+      <c r="B102" s="195"/>
+      <c r="C102" s="196"/>
+      <c r="D102" s="200"/>
+      <c r="E102" s="196"/>
+      <c r="F102" s="203"/>
       <c r="G102" s="94" t="s">
         <v>23</v>
       </c>
@@ -11736,7 +11718,7 @@
       </c>
       <c r="AB102" s="91">
         <f t="shared" si="30"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="91">
         <f t="shared" si="30"/>
@@ -11764,11 +11746,11 @@
       </c>
       <c r="AI102" s="91">
         <f t="shared" ref="AI102" si="32">SUM(AI18,AI30,AI42,AI54,AI66,AI78,AI90)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AJ102" s="91">
         <f t="shared" si="30"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK102" s="91">
         <f t="shared" si="30"/>
@@ -11781,17 +11763,17 @@
       <c r="AM102" s="85"/>
       <c r="AN102" s="92">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="AO102" s="96"/>
       <c r="AP102" s="27"/>
     </row>
     <row r="103" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="251"/>
-      <c r="C103" s="252"/>
-      <c r="D103" s="256"/>
-      <c r="E103" s="252"/>
-      <c r="F103" s="259"/>
+      <c r="B103" s="195"/>
+      <c r="C103" s="196"/>
+      <c r="D103" s="200"/>
+      <c r="E103" s="196"/>
+      <c r="F103" s="203"/>
       <c r="G103" s="94" t="s">
         <v>26</v>
       </c>
@@ -11877,7 +11859,7 @@
       </c>
       <c r="AB103" s="91">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC103" s="91">
         <f t="shared" si="33"/>
@@ -11905,11 +11887,11 @@
       </c>
       <c r="AI103" s="91">
         <f t="shared" ref="AI103" si="35">SUM(AI19,AI31,AI43,AI55,AI67,AI79,AI91)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ103" s="91">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK103" s="91">
         <f t="shared" si="33"/>
@@ -11922,17 +11904,17 @@
       <c r="AM103" s="85"/>
       <c r="AN103" s="92">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO103" s="96"/>
       <c r="AP103" s="27"/>
     </row>
     <row r="104" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="251"/>
-      <c r="C104" s="252"/>
-      <c r="D104" s="256"/>
-      <c r="E104" s="252"/>
-      <c r="F104" s="259"/>
+      <c r="B104" s="195"/>
+      <c r="C104" s="196"/>
+      <c r="D104" s="200"/>
+      <c r="E104" s="196"/>
+      <c r="F104" s="203"/>
       <c r="G104" s="94" t="s">
         <v>24</v>
       </c>
@@ -12069,11 +12051,11 @@
       <c r="AP104" s="27"/>
     </row>
     <row r="105" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="253"/>
-      <c r="C105" s="254"/>
-      <c r="D105" s="257"/>
-      <c r="E105" s="254"/>
-      <c r="F105" s="260"/>
+      <c r="B105" s="197"/>
+      <c r="C105" s="198"/>
+      <c r="D105" s="201"/>
+      <c r="E105" s="198"/>
+      <c r="F105" s="204"/>
       <c r="G105" s="99" t="s">
         <v>25</v>
       </c>
@@ -12210,13 +12192,13 @@
       <c r="AP105" s="27"/>
     </row>
     <row r="106" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="236"/>
-      <c r="C106" s="237"/>
-      <c r="D106" s="242" t="s">
+      <c r="B106" s="177"/>
+      <c r="C106" s="178"/>
+      <c r="D106" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="E106" s="237"/>
-      <c r="F106" s="246" t="s">
+      <c r="E106" s="178"/>
+      <c r="F106" s="187" t="s">
         <v>28</v>
       </c>
       <c r="G106" s="102" t="s">
@@ -12263,11 +12245,11 @@
       <c r="AQ106" s="34"/>
     </row>
     <row r="107" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="238"/>
-      <c r="C107" s="239"/>
-      <c r="D107" s="243"/>
-      <c r="E107" s="239"/>
-      <c r="F107" s="247"/>
+      <c r="B107" s="179"/>
+      <c r="C107" s="180"/>
+      <c r="D107" s="184"/>
+      <c r="E107" s="180"/>
+      <c r="F107" s="188"/>
       <c r="G107" s="107" t="s">
         <v>15</v>
       </c>
@@ -12312,11 +12294,11 @@
       <c r="AQ107" s="34"/>
     </row>
     <row r="108" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="238"/>
-      <c r="C108" s="239"/>
-      <c r="D108" s="243"/>
-      <c r="E108" s="239"/>
-      <c r="F108" s="247"/>
+      <c r="B108" s="179"/>
+      <c r="C108" s="180"/>
+      <c r="D108" s="184"/>
+      <c r="E108" s="180"/>
+      <c r="F108" s="188"/>
       <c r="G108" s="112" t="s">
         <v>16</v>
       </c>
@@ -12361,11 +12343,11 @@
       <c r="AQ108" s="34"/>
     </row>
     <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="238"/>
-      <c r="C109" s="239"/>
-      <c r="D109" s="243"/>
-      <c r="E109" s="239"/>
-      <c r="F109" s="247"/>
+      <c r="B109" s="179"/>
+      <c r="C109" s="180"/>
+      <c r="D109" s="184"/>
+      <c r="E109" s="180"/>
+      <c r="F109" s="188"/>
       <c r="G109" s="112" t="s">
         <v>17</v>
       </c>
@@ -12410,11 +12392,11 @@
       <c r="AQ109" s="34"/>
     </row>
     <row r="110" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="238"/>
-      <c r="C110" s="239"/>
-      <c r="D110" s="243"/>
-      <c r="E110" s="239"/>
-      <c r="F110" s="247"/>
+      <c r="B110" s="179"/>
+      <c r="C110" s="180"/>
+      <c r="D110" s="184"/>
+      <c r="E110" s="180"/>
+      <c r="F110" s="188"/>
       <c r="G110" s="112" t="s">
         <v>18</v>
       </c>
@@ -12459,11 +12441,11 @@
       <c r="AQ110" s="34"/>
     </row>
     <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="238"/>
-      <c r="C111" s="239"/>
-      <c r="D111" s="243"/>
-      <c r="E111" s="239"/>
-      <c r="F111" s="247"/>
+      <c r="B111" s="179"/>
+      <c r="C111" s="180"/>
+      <c r="D111" s="184"/>
+      <c r="E111" s="180"/>
+      <c r="F111" s="188"/>
       <c r="G111" s="112" t="s">
         <v>19</v>
       </c>
@@ -12508,11 +12490,11 @@
       <c r="AQ111" s="34"/>
     </row>
     <row r="112" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="238"/>
-      <c r="C112" s="239"/>
-      <c r="D112" s="243"/>
-      <c r="E112" s="239"/>
-      <c r="F112" s="247"/>
+      <c r="B112" s="179"/>
+      <c r="C112" s="180"/>
+      <c r="D112" s="184"/>
+      <c r="E112" s="180"/>
+      <c r="F112" s="188"/>
       <c r="G112" s="119" t="s">
         <v>20</v>
       </c>
@@ -12557,11 +12539,11 @@
       <c r="AQ112" s="34"/>
     </row>
     <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="238"/>
-      <c r="C113" s="239"/>
-      <c r="D113" s="244"/>
-      <c r="E113" s="239"/>
-      <c r="F113" s="247"/>
+      <c r="B113" s="179"/>
+      <c r="C113" s="180"/>
+      <c r="D113" s="185"/>
+      <c r="E113" s="180"/>
+      <c r="F113" s="188"/>
       <c r="G113" s="112" t="s">
         <v>31</v>
       </c>
@@ -12606,11 +12588,11 @@
       <c r="AQ113" s="34"/>
     </row>
     <row r="114" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="238"/>
-      <c r="C114" s="239"/>
-      <c r="D114" s="244"/>
-      <c r="E114" s="239"/>
-      <c r="F114" s="247"/>
+      <c r="B114" s="179"/>
+      <c r="C114" s="180"/>
+      <c r="D114" s="185"/>
+      <c r="E114" s="180"/>
+      <c r="F114" s="188"/>
       <c r="G114" s="112" t="s">
         <v>23</v>
       </c>
@@ -12656,11 +12638,11 @@
       <c r="AQ114" s="34"/>
     </row>
     <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="238"/>
-      <c r="C115" s="239"/>
-      <c r="D115" s="244"/>
-      <c r="E115" s="239"/>
-      <c r="F115" s="247"/>
+      <c r="B115" s="179"/>
+      <c r="C115" s="180"/>
+      <c r="D115" s="185"/>
+      <c r="E115" s="180"/>
+      <c r="F115" s="188"/>
       <c r="G115" s="112" t="s">
         <v>26</v>
       </c>
@@ -12705,11 +12687,11 @@
       <c r="AQ115" s="34"/>
     </row>
     <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="238"/>
-      <c r="C116" s="239"/>
-      <c r="D116" s="244"/>
-      <c r="E116" s="239"/>
-      <c r="F116" s="247"/>
+      <c r="B116" s="179"/>
+      <c r="C116" s="180"/>
+      <c r="D116" s="185"/>
+      <c r="E116" s="180"/>
+      <c r="F116" s="188"/>
       <c r="G116" s="112" t="s">
         <v>24</v>
       </c>
@@ -12754,11 +12736,11 @@
       <c r="AQ116" s="34"/>
     </row>
     <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="240"/>
-      <c r="C117" s="241"/>
-      <c r="D117" s="245"/>
-      <c r="E117" s="241"/>
-      <c r="F117" s="248"/>
+      <c r="B117" s="181"/>
+      <c r="C117" s="182"/>
+      <c r="D117" s="186"/>
+      <c r="E117" s="182"/>
+      <c r="F117" s="189"/>
       <c r="G117" s="121" t="s">
         <v>25</v>
       </c>
@@ -12882,7 +12864,9 @@
       <c r="Y119" s="151"/>
       <c r="Z119" s="151"/>
       <c r="AA119" s="151"/>
-      <c r="AB119" s="151"/>
+      <c r="AB119" s="151">
+        <v>7.5</v>
+      </c>
       <c r="AC119" s="151"/>
       <c r="AD119" s="151"/>
       <c r="AE119" s="151"/>
@@ -12896,7 +12880,7 @@
       <c r="AM119" s="153"/>
       <c r="AN119" s="154">
         <f>SUM(H119:AL119)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AO119" s="155"/>
     </row>
@@ -12936,14 +12920,16 @@
       <c r="AF120" s="162"/>
       <c r="AG120" s="162"/>
       <c r="AH120" s="162"/>
-      <c r="AI120" s="162"/>
+      <c r="AI120" s="162">
+        <v>7.5</v>
+      </c>
       <c r="AJ120" s="162"/>
       <c r="AK120" s="162"/>
       <c r="AL120" s="163"/>
       <c r="AM120" s="68"/>
       <c r="AN120" s="164">
         <f>SUM(H120:AL120)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AO120" s="165"/>
     </row>
@@ -12984,39 +12970,20 @@
       <c r="AG121" s="172"/>
       <c r="AH121" s="172"/>
       <c r="AI121" s="172"/>
-      <c r="AJ121" s="172"/>
+      <c r="AJ121" s="172">
+        <v>7.5</v>
+      </c>
       <c r="AK121" s="172"/>
       <c r="AL121" s="173"/>
       <c r="AM121" s="174"/>
       <c r="AN121" s="175">
         <f>SUM(H121:AL121)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AO121" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B106:C117"/>
-    <mergeCell ref="D106:E117"/>
-    <mergeCell ref="F106:F117"/>
-    <mergeCell ref="F82:F93"/>
-    <mergeCell ref="B94:C105"/>
-    <mergeCell ref="D94:E105"/>
-    <mergeCell ref="F94:F105"/>
-    <mergeCell ref="B70:C81"/>
-    <mergeCell ref="D70:E81"/>
-    <mergeCell ref="F70:F81"/>
-    <mergeCell ref="B82:C93"/>
-    <mergeCell ref="F58:F69"/>
-    <mergeCell ref="B58:C69"/>
-    <mergeCell ref="D58:E69"/>
-    <mergeCell ref="D82:E93"/>
-    <mergeCell ref="D46:E57"/>
-    <mergeCell ref="F46:F57"/>
-    <mergeCell ref="D22:E33"/>
-    <mergeCell ref="F22:F33"/>
-    <mergeCell ref="D34:E45"/>
-    <mergeCell ref="F34:F45"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B46:C57"/>
@@ -13033,6 +13000,27 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="D10:E21"/>
     <mergeCell ref="F10:F21"/>
+    <mergeCell ref="D46:E57"/>
+    <mergeCell ref="F46:F57"/>
+    <mergeCell ref="D22:E33"/>
+    <mergeCell ref="F22:F33"/>
+    <mergeCell ref="D34:E45"/>
+    <mergeCell ref="F34:F45"/>
+    <mergeCell ref="B70:C81"/>
+    <mergeCell ref="D70:E81"/>
+    <mergeCell ref="F70:F81"/>
+    <mergeCell ref="B82:C93"/>
+    <mergeCell ref="F58:F69"/>
+    <mergeCell ref="B58:C69"/>
+    <mergeCell ref="D58:E69"/>
+    <mergeCell ref="D82:E93"/>
+    <mergeCell ref="B106:C117"/>
+    <mergeCell ref="D106:E117"/>
+    <mergeCell ref="F106:F117"/>
+    <mergeCell ref="F82:F93"/>
+    <mergeCell ref="B94:C105"/>
+    <mergeCell ref="D94:E105"/>
+    <mergeCell ref="F94:F105"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:AL8 AM8:AM9">
     <cfRule type="cellIs" dxfId="205" priority="316" stopIfTrue="1" operator="equal">
